--- a/tutorial/heatPipeFR.xlsx
+++ b/tutorial/heatPipeFR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannbn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/botros/projects/ACCERT/tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224C6320-6E5A-E54B-9ABE-22B31A6AE56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1B2B1-0630-D146-87A3-F84D2C04EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microreactors" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="DesignOptions">'[1]1. Design Attributes'!$B$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="175">
   <si>
     <t>heat-pipe_microreactor_account</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>operation_maintenance_headcount_security</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -740,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +929,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1089,7 +1098,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1134,50 +1143,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1636,209 +1637,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB5C8C-9711-C341-8FD0-0ECD5FD115BE}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="8" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="51.1640625" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="14.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="35.5" customWidth="1"/>
-    <col min="17" max="17" width="20.125" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="20.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="33" customFormat="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="1:18" s="33" customFormat="1">
-      <c r="A2" s="35" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="33" customFormat="1">
-      <c r="A3" s="37">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="38">
-        <v>11</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="10">
         <f>M3</f>
         <v>100317.31991067936</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="39">
-        <f>D3/1000000</f>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H29" si="0">D3/1000000</f>
         <v>0.10031731991067937</v>
       </c>
-      <c r="K3" s="34">
+      <c r="J3" s="31"/>
+      <c r="K3" s="32">
         <v>1</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="34">
         <f>3.13491624720873*Q3</f>
         <v>100317.31991067936</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="35">
         <v>32000</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="33" customFormat="1">
-      <c r="A4" s="37">
+      <c r="S3" s="31"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="29">
         <v>12</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="37">
-        <f t="shared" ref="D4:D6" si="0">M4</f>
+      <c r="D4" s="10">
+        <f>M4</f>
         <v>295050.94091376261</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="39">
-        <f>D4/1000000</f>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
         <v>0.2950509409137626</v>
       </c>
-      <c r="K4" s="34">
+      <c r="J4" s="31"/>
+      <c r="K4" s="32">
         <v>2</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="34">
         <f>9.22034190355508*Q3</f>
         <v>295050.94091376261</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="33" t="s">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="35">
         <f>Q5*Q6*Q7</f>
         <v>76.783140000000003</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="29">
         <v>13</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D6" si="1">M5</f>
         <v>708122.25819303037</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1851,45 +1856,47 @@
         <v>26</v>
       </c>
       <c r="H5" s="21">
-        <f>D5/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.70812225819303032</v>
       </c>
-      <c r="K5" s="2">
+      <c r="J5" s="31"/>
+      <c r="K5" s="32">
         <v>3</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="34">
         <f>22.1288205685322*Q3</f>
         <v>708122.25819303037</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="35">
         <v>2.4300000000000002</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1">
+      <c r="S5" s="31"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332800</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1902,38 +1909,40 @@
         <v>31</v>
       </c>
       <c r="H6" s="21">
-        <f>D6/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.33279999999999998</v>
       </c>
-      <c r="K6" s="2">
+      <c r="J6" s="36"/>
+      <c r="K6" s="32">
         <v>4</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="34">
         <f>10.4*Q3</f>
         <v>332800</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="35">
         <v>12.2</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1">
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="29">
         <v>211</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1953,38 +1962,40 @@
         <v>34</v>
       </c>
       <c r="H7" s="21">
-        <f>D7/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.6094305214413152</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J7" s="36"/>
+      <c r="K7" s="32">
         <v>5</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="35">
         <v>2.59</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="29">
         <v>212</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -2004,23 +2015,25 @@
         <v>38</v>
       </c>
       <c r="H8" s="21">
-        <f>D8/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.41869369894906211</v>
       </c>
-      <c r="K8" s="2">
+      <c r="J8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="37">
         <v>6</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="39">
         <f>81.5447037950411*Q3</f>
         <v>2609430.5214413153</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="30"/>
       <c r="P8" t="s">
         <v>39</v>
       </c>
@@ -2032,11 +2045,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="29">
         <v>213</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2056,23 +2069,25 @@
         <v>41</v>
       </c>
       <c r="H9" s="21">
-        <f>D9/1000000</f>
+        <f t="shared" si="0"/>
         <v>16.301349030709449</v>
       </c>
-      <c r="K9" s="2">
+      <c r="J9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="37">
         <v>7</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="39">
         <f>130.795037636272*Q4</f>
         <v>10042.853686131144</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="30"/>
       <c r="P9" t="s">
         <v>43</v>
       </c>
@@ -2083,11 +2098,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2107,25 +2122,23 @@
         <v>46</v>
       </c>
       <c r="H10" s="21">
-        <f>D10/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.0270999999999999</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2">
+      <c r="K10" s="37">
         <v>8</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="39">
         <f>915.565263453905*Q8</f>
         <v>408650.84526293096</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="30"/>
       <c r="P10" t="s">
         <v>48</v>
       </c>
@@ -2136,11 +2149,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="29">
         <v>221.12</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -2160,23 +2173,25 @@
         <v>50</v>
       </c>
       <c r="H11" s="21">
-        <f>D11/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.10394575092158052</v>
       </c>
-      <c r="K11" s="2">
+      <c r="J11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="37">
         <v>9</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="39">
         <f>6458.34903070945*Q10</f>
         <v>6458349.0307094501</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="30"/>
       <c r="P11" t="s">
         <v>52</v>
       </c>
@@ -2187,18 +2202,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="29">
         <v>221.13</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" ref="D12:D16" si="1">M16</f>
+        <f t="shared" ref="D12:D16" si="2">M16</f>
         <v>318738.58901108452</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -2211,23 +2226,22 @@
         <v>54</v>
       </c>
       <c r="H12" s="21">
-        <f>D12/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.31873858901108454</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="37">
         <v>10</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="39">
         <f>9843*Q11+10000*Q12</f>
         <v>9843000</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="30"/>
       <c r="P12" t="s">
         <v>56</v>
       </c>
@@ -2238,18 +2252,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="29">
         <v>221.21</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9043403.7802629825</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2262,23 +2276,25 @@
         <v>59</v>
       </c>
       <c r="H13" s="21">
-        <f>D13/1000000</f>
+        <f t="shared" si="0"/>
         <v>9.0434037802629827</v>
       </c>
-      <c r="K13" s="2">
+      <c r="J13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="37">
         <v>11</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="39">
         <f>7600*Q13+1100</f>
         <v>1027100</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="30"/>
       <c r="P13" t="s">
         <v>60</v>
       </c>
@@ -2289,18 +2305,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="5" customFormat="1">
+    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="30">
         <v>221.22</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3277300</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -2313,45 +2329,48 @@
         <v>63</v>
       </c>
       <c r="H14" s="25">
-        <f>D14/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.2772999999999999</v>
       </c>
-      <c r="K14" s="26">
+      <c r="J14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="41">
         <v>12</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="39">
         <f>310000*Q14</f>
         <v>99429.717309583939</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14"/>
       <c r="P14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="26">
         <v>0.32074102357930301</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="29">
         <v>221.23</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3902599.9998715739</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -2364,23 +2383,22 @@
         <v>68</v>
       </c>
       <c r="H15" s="21">
-        <f>D15/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.9025999998715739</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="37">
         <v>13</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="39">
         <f>14080*Q14</f>
         <v>4516.0336119965859</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="30"/>
       <c r="P15" t="s">
         <v>70</v>
       </c>
@@ -2391,18 +2409,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="29">
         <v>221.24</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2415,23 +2433,26 @@
         <v>72</v>
       </c>
       <c r="H16" s="21">
-        <f>D16/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="J16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="37">
         <v>14</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="39">
         <f>310000*Q15</f>
         <v>318738.58901108452</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16"/>
       <c r="P16" t="s">
         <v>73</v>
       </c>
@@ -2442,11 +2463,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="29">
         <v>222.12</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -2466,23 +2487,25 @@
         <v>76</v>
       </c>
       <c r="H17" s="21">
-        <f>D17/1000000</f>
+        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
-      <c r="K17" s="2">
+      <c r="J17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="37">
         <v>15</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="39">
         <f>950*Q16+610000*(Q17+Q18)</f>
         <v>9043403.7802629825</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="30"/>
       <c r="P17" t="s">
         <v>77</v>
       </c>
@@ -2493,11 +2516,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="29">
         <v>222.13</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2517,23 +2540,25 @@
         <v>80</v>
       </c>
       <c r="H18" s="21">
-        <f>D18/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.2547836799999998</v>
       </c>
-      <c r="K18" s="2">
+      <c r="J18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="37">
         <v>16</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="39">
         <f>310000*Q19+120000*Q20+1000000*Q21</f>
         <v>3277300</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="30"/>
       <c r="P18" t="s">
         <v>81</v>
       </c>
@@ -2544,18 +2569,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="29">
         <v>227</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" ref="D19:D29" si="2">M25</f>
+        <f t="shared" ref="D19:D29" si="3">M25</f>
         <v>8500000</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -2568,23 +2593,25 @@
         <v>84</v>
       </c>
       <c r="H19" s="21">
-        <f>D19/1000000</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="K19" s="2">
+      <c r="J19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="37">
         <v>17</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="39">
         <f>949.8866494*Q22</f>
         <v>3902599.9998715739</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="30"/>
       <c r="P19" t="s">
         <v>85</v>
       </c>
@@ -2595,18 +2622,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18734510.992774624</v>
       </c>
       <c r="E20" s="13" t="s">
@@ -2619,23 +2646,25 @@
         <v>88</v>
       </c>
       <c r="H20" s="21">
-        <f>D20/1000000</f>
+        <f t="shared" si="0"/>
         <v>18.734510992774624</v>
       </c>
-      <c r="K20" s="2">
+      <c r="J20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="37">
         <v>18</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="39">
         <f>310000*Q23</f>
         <v>0</v>
       </c>
-      <c r="N20" s="30" t="s">
+      <c r="N20" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="30"/>
       <c r="P20" t="s">
         <v>89</v>
       </c>
@@ -2646,11 +2675,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="29" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -2670,23 +2699,25 @@
         <v>92</v>
       </c>
       <c r="H21" s="21">
-        <f>D21/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.496</v>
       </c>
-      <c r="K21" s="2">
+      <c r="J21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="37">
         <v>19</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="39">
         <f>10000*Q24*(1-Q25)</f>
         <v>11340000</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="30"/>
       <c r="P21" t="s">
         <v>93</v>
       </c>
@@ -2697,18 +2728,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="29">
         <v>32</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800000</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -2721,23 +2752,25 @@
         <v>95</v>
       </c>
       <c r="H22" s="21">
-        <f>D22/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="K22" s="2">
+      <c r="J22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="37">
         <v>20</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="39">
         <f>50000*Q26</f>
         <v>100000</v>
       </c>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="30"/>
       <c r="P22" t="s">
         <v>97</v>
       </c>
@@ -2748,18 +2781,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="29" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="2"/>
+        <f>M29</f>
         <v>225287.67123287672</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -2772,23 +2805,22 @@
         <v>100</v>
       </c>
       <c r="H23" s="21">
-        <f>D23/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.22528767123287671</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="37">
         <v>21</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="39">
         <f>530000*Q26</f>
         <v>1060000</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="30"/>
       <c r="P23" t="s">
         <v>102</v>
       </c>
@@ -2799,18 +2831,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1965000</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -2823,23 +2855,22 @@
         <v>105</v>
       </c>
       <c r="H24" s="21">
-        <f>D24/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.9650000000000001</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="37">
         <v>22</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="39">
         <f>120000*Q26*Q27</f>
         <v>94783.680000000008</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="30"/>
       <c r="P24" t="s">
         <v>107</v>
       </c>
@@ -2850,18 +2881,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="29">
         <v>511</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -2874,23 +2905,25 @@
         <v>110</v>
       </c>
       <c r="H25" s="21">
-        <f>D25/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.4550000000000001</v>
       </c>
-      <c r="K25" s="2">
+      <c r="J25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="37">
         <v>23</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="L25" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="39">
         <f>2000*Q28+6500000</f>
         <v>8500000</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="N25" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="30"/>
       <c r="P25" t="s">
         <v>111</v>
       </c>
@@ -2901,18 +2934,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="29">
         <v>512</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249120.00000000003</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -2925,23 +2958,25 @@
         <v>114</v>
       </c>
       <c r="H26" s="21">
-        <f>D26/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.24912000000000004</v>
       </c>
-      <c r="K26" s="2">
+      <c r="J26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="37">
         <v>24</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="39">
         <f>282553*Q29+213800000*(((Q30/1144)^0.4)+((Q29/3431)^0.8))</f>
         <v>18734510.992774624</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="N26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="30"/>
       <c r="P26" t="s">
         <v>115</v>
       </c>
@@ -2952,18 +2987,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="26.1" customHeight="1">
+    <row r="27" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="29">
         <v>55</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27689151.729621693</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -2976,7 +3011,7 @@
         <v>118</v>
       </c>
       <c r="H27" s="21">
-        <f>D27/1000000</f>
+        <f t="shared" si="0"/>
         <v>27.689151729621692</v>
       </c>
       <c r="K27" s="2">
@@ -3002,18 +3037,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="29">
         <v>58</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9167440.0598450769</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -3026,7 +3061,7 @@
         <v>121</v>
       </c>
       <c r="H28" s="21">
-        <f>D28/1000000</f>
+        <f t="shared" si="0"/>
         <v>9.1674400598450774</v>
       </c>
       <c r="K28" s="2">
@@ -3052,18 +3087,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="29" t="s">
         <v>124</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4660000</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -3076,7 +3111,7 @@
         <v>126</v>
       </c>
       <c r="H29" s="21">
-        <f>D29/1000000</f>
+        <f t="shared" si="0"/>
         <v>4.66</v>
       </c>
       <c r="K29" s="2">
@@ -3102,7 +3137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="9"/>
@@ -3132,7 +3167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
@@ -3161,7 +3196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="9"/>
@@ -3190,7 +3225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="9"/>
@@ -3219,7 +3254,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="10"/>
@@ -3249,7 +3284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H35" s="6"/>
       <c r="K35" s="2">
         <v>33</v>
@@ -3274,7 +3309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H36" s="6"/>
       <c r="K36" s="2"/>
       <c r="L36" s="16"/>
@@ -3289,7 +3324,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H37" s="6"/>
       <c r="K37" s="2"/>
       <c r="L37" s="16"/>
@@ -3304,7 +3339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H38" s="6"/>
       <c r="K38" s="2"/>
       <c r="M38" s="7"/>
@@ -3318,7 +3353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H39" s="6"/>
       <c r="K39" s="2"/>
       <c r="L39" s="16"/>
@@ -3333,7 +3368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H40" s="6"/>
       <c r="K40" s="2"/>
       <c r="L40" s="16"/>
@@ -3348,7 +3383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D41" s="12"/>
       <c r="K41" s="2"/>
       <c r="L41" s="16"/>
@@ -3363,7 +3398,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K42" s="2"/>
       <c r="L42" s="16"/>
       <c r="M42" s="3"/>
@@ -3377,7 +3412,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K43" s="2"/>
       <c r="L43" s="16"/>
       <c r="M43" s="3"/>
@@ -3391,7 +3426,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K44" s="2"/>
       <c r="L44" s="16"/>
       <c r="M44" s="3"/>
@@ -3405,7 +3440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K45" s="2"/>
       <c r="L45" s="16"/>
       <c r="M45" s="3"/>
@@ -3419,7 +3454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K46" s="2"/>
       <c r="L46" s="16"/>
       <c r="M46" s="3"/>
@@ -3433,7 +3468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K47" s="2"/>
       <c r="L47" s="16"/>
       <c r="M47" s="3"/>
@@ -3447,7 +3482,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K48" s="2"/>
       <c r="L48" s="16"/>
       <c r="M48" s="3"/>
@@ -3461,7 +3496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="11:18">
+    <row r="49" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K49" s="2"/>
       <c r="L49" s="16"/>
       <c r="M49" s="3"/>
@@ -3475,7 +3510,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="11:18">
+    <row r="50" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K50" s="2"/>
       <c r="L50" s="16"/>
       <c r="M50" s="3"/>
@@ -3489,7 +3524,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="11:18">
+    <row r="51" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K51" s="2"/>
       <c r="L51" s="16"/>
       <c r="M51" s="3"/>
@@ -3503,7 +3538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="11:18">
+    <row r="52" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K52" s="2"/>
       <c r="L52" s="16"/>
       <c r="M52" s="3"/>
@@ -3518,7 +3553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="11:18">
+    <row r="53" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K53" s="2"/>
       <c r="L53" s="16"/>
       <c r="M53" s="3"/>
@@ -3532,7 +3567,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="11:18">
+    <row r="54" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K54" s="2"/>
       <c r="L54" s="16"/>
       <c r="M54" s="3"/>
@@ -3547,7 +3582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="11:18">
+    <row r="55" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K55" s="2"/>
       <c r="L55" s="16"/>
       <c r="M55" s="3"/>
@@ -3562,7 +3597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="11:18">
+    <row r="56" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K56" s="2"/>
       <c r="L56" s="16"/>
       <c r="M56" s="3"/>
@@ -3577,7 +3612,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="11:18">
+    <row r="57" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L57" s="17"/>
       <c r="M57" s="3"/>
       <c r="P57" t="s">
@@ -3591,7 +3626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="11:18">
+    <row r="58" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L58" s="17"/>
       <c r="M58" s="3"/>
       <c r="P58" t="s">
@@ -3605,7 +3640,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="11:18">
+    <row r="59" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L59" s="17"/>
       <c r="M59" s="3"/>
       <c r="P59" t="s">
@@ -3618,7 +3653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="11:18">
+    <row r="60" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L60" s="17"/>
       <c r="M60" s="3"/>
       <c r="P60" t="s">
@@ -3631,7 +3666,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="11:18">
+    <row r="61" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L61" s="17"/>
       <c r="M61" s="3"/>
       <c r="P61" t="s">
@@ -3644,7 +3679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="11:18">
+    <row r="62" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L62" s="17"/>
       <c r="M62" s="3"/>
       <c r="P62" t="s">
@@ -3657,7 +3692,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="11:18">
+    <row r="63" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L63" s="17"/>
       <c r="M63" s="3"/>
       <c r="P63" t="s">
@@ -3670,7 +3705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="11:18">
+    <row r="64" spans="11:18" x14ac:dyDescent="0.2">
       <c r="L64" s="17"/>
       <c r="M64" s="3"/>
       <c r="P64" t="s">
@@ -3683,7 +3718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="12:18">
+    <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="17"/>
       <c r="M65" s="3"/>
       <c r="P65" t="s">
@@ -3696,7 +3731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="12:18">
+    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="17"/>
       <c r="M66" s="3"/>
       <c r="P66" t="s">
@@ -3709,66 +3744,66 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="12:18">
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="17"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="12:18">
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="17"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="12:18">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="12:18">
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="12:18">
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="12:18">
+    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="12:18">
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="12:18">
+    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="12:18">
+    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="12:18">
+    <row r="76" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="12:18">
+    <row r="77" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="12:18">
+    <row r="78" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="12:18">
+    <row r="79" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="12:18">
+    <row r="80" spans="12:18" x14ac:dyDescent="0.2">
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="13:13">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="13:13">
+    <row r="82" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="13:13">
+    <row r="83" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="13:13">
+    <row r="84" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="13:13">
+    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="13:13">
+    <row r="86" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M86" s="3"/>
     </row>
   </sheetData>

--- a/tutorial/heatPipeFR.xlsx
+++ b/tutorial/heatPipeFR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/botros/projects/ACCERT/tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1B2B1-0630-D146-87A3-F84D2C04EBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899BA579-808B-C442-A532-95B88C6F5CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microreactors" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>heat-pipe_microreactor_account</t>
   </si>
@@ -564,6 +564,12 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>Original variables</t>
+  </si>
+  <si>
+    <t>var_value (new)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -742,8 +748,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,6 +949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1098,7 +1118,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1107,7 +1127,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1136,22 +1155,15 @@
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1177,6 +1189,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1637,22 +1669,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB5C8C-9711-C341-8FD0-0ECD5FD115BE}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="93" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="10" width="51.1640625" customWidth="1"/>
@@ -1664,43 +1696,48 @@
     <col min="18" max="18" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="K1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="W1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1719,1305 +1756,1543 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="45">
         <f>M3</f>
-        <v>100317.31991067936</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>125396.6498883492</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f t="shared" ref="H3:H29" si="0">D3/1000000</f>
-        <v>0.10031731991067937</v>
-      </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32">
+        <v>0.1253966498883492</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28">
         <v>1</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="30">
         <f>3.13491624720873*Q3</f>
-        <v>100317.31991067936</v>
-      </c>
-      <c r="N3" s="31" t="s">
+        <v>125396.6498883492</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="35">
+      <c r="Q3" s="31">
+        <v>40000</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3">
         <v>32000</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="Y3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="31"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="45">
         <f>M4</f>
-        <v>295050.94091376261</v>
-      </c>
-      <c r="E4" s="13" t="s">
+        <v>368813.67614220321</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
-        <v>0.2950509409137626</v>
-      </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32">
+        <v>0.36881367614220323</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28">
         <v>2</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="30">
         <f>9.22034190355508*Q3</f>
-        <v>295050.94091376261</v>
-      </c>
-      <c r="N4" s="31" t="s">
+        <v>368813.67614220321</v>
+      </c>
+      <c r="N4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="31">
         <f>Q5*Q6*Q7</f>
+        <v>94.793999999999983</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="W4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4">
         <v>76.783140000000003</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="45">
         <f t="shared" ref="D5:D6" si="1">M5</f>
-        <v>708122.25819303037</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>885152.82274128788</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
-        <v>0.70812225819303032</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32">
+        <v>0.88515282274128793</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28">
         <v>3</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="30">
         <f>22.1288205685322*Q3</f>
-        <v>708122.25819303037</v>
-      </c>
-      <c r="N5" s="31" t="s">
+        <v>885152.82274128788</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31" t="s">
+      <c r="O5" s="27"/>
+      <c r="P5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="31">
+        <v>3</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5">
         <v>2.4300000000000002</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="Y5" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="31"/>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="45">
         <f t="shared" si="1"/>
-        <v>332800</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>416000</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="28">
         <v>4</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="30">
         <f>10.4*Q3</f>
-        <v>332800</v>
-      </c>
-      <c r="N6" s="31" t="s">
+        <v>416000</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31" t="s">
+      <c r="O6" s="27"/>
+      <c r="P6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="31">
         <v>12.2</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="36"/>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="S6" s="32"/>
+      <c r="W6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="40">
         <v>211</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="47">
         <f>M8</f>
-        <v>2609430.5214413153</v>
-      </c>
-      <c r="E7" s="13" t="s">
+        <v>3261788.1518016439</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="39">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
-        <v>2.6094305214413152</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32">
+        <v>3.2617881518016438</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="28">
         <v>5</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="30">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="31">
         <v>2.59</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="S7" s="32"/>
+      <c r="W7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="40">
         <v>212</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="47">
         <f>M9+M10</f>
-        <v>418693.69894906209</v>
-      </c>
-      <c r="E8" s="13" t="s">
+        <v>452203.63479409605</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="39">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
-        <v>0.41869369894906211</v>
-      </c>
-      <c r="J8" s="13" t="s">
+        <v>0.45220363479409603</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="33">
         <v>6</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="35">
         <f>81.5447037950411*Q3</f>
-        <v>2609430.5214413153</v>
-      </c>
-      <c r="N8" s="40" t="s">
+        <v>3261788.1518016439</v>
+      </c>
+      <c r="N8" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P8" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <f>(2*Q9+Q5)*(2*Q9+Q6)*(2*Q9+Q7)-Q5*Q6*Q7</f>
-        <v>446.33721000000003</v>
+        <v>480.36449999999991</v>
       </c>
       <c r="R8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="W8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8">
+        <v>446.33721000000003</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="40">
         <v>213</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="47">
         <f>M11+M12</f>
-        <v>16301349.030709449</v>
-      </c>
-      <c r="E9" s="13" t="s">
+        <v>209796698.06141889</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="39">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="41">
         <f t="shared" si="0"/>
-        <v>16.301349030709449</v>
-      </c>
-      <c r="J9" s="13" t="s">
+        <v>209.79669806141888</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="33">
         <v>7</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="35">
         <f>130.795037636272*Q4</f>
-        <v>10042.853686131144</v>
-      </c>
-      <c r="N9" s="40" t="s">
+        <v>12398.584797692767</v>
+      </c>
+      <c r="N9" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>1.65</v>
       </c>
       <c r="R9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9">
+        <v>1.65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="47">
         <f>M13</f>
-        <v>1027100</v>
-      </c>
-      <c r="E10" s="13" t="s">
+        <v>1141100</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="39">
         <v>2</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
-        <v>1.0270999999999999</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="37">
+        <v>1.1411</v>
+      </c>
+      <c r="I10" s="44"/>
+      <c r="K10" s="33">
         <v>8</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="35">
         <f>915.565263453905*Q8</f>
-        <v>408650.84526293096</v>
-      </c>
-      <c r="N10" s="40" t="s">
+        <v>439805.04999640328</v>
+      </c>
+      <c r="N10" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P10" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="18">
-        <v>1000</v>
+      <c r="Q10" s="17">
+        <v>2000</v>
       </c>
       <c r="R10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="W10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="39">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="40">
         <v>221.12</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="46">
         <f>M15+M14</f>
-        <v>103945.75092158052</v>
-      </c>
-      <c r="E11" s="13" t="s">
+        <v>324080</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="39">
         <v>3</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
-        <v>0.10394575092158052</v>
-      </c>
-      <c r="J11" s="13" t="s">
+        <v>0.32407999999999998</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="33">
         <v>9</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="35">
         <f>6458.34903070945*Q10</f>
-        <v>6458349.0307094501</v>
-      </c>
-      <c r="N11" s="40" t="s">
+        <v>12916698.0614189</v>
+      </c>
+      <c r="N11" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P11" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="18">
-        <v>1000</v>
+      <c r="Q11" s="17">
+        <v>20000</v>
       </c>
       <c r="R11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="40">
         <v>221.13</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="46">
         <f t="shared" ref="D12:D16" si="2">M16</f>
-        <v>318738.58901108452</v>
-      </c>
-      <c r="E12" s="13" t="s">
+        <v>155000</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="39">
         <v>3</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="41">
         <f t="shared" si="0"/>
-        <v>0.31873858901108454</v>
-      </c>
-      <c r="K12" s="37">
+        <v>0.155</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="K12" s="33">
         <v>10</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="35">
         <f>9843*Q11+10000*Q12</f>
-        <v>9843000</v>
-      </c>
-      <c r="N12" s="40" t="s">
+        <v>196880000</v>
+      </c>
+      <c r="N12" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="18">
-        <v>0</v>
+      <c r="Q12" s="17">
+        <v>2</v>
       </c>
       <c r="R12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="40">
         <v>221.21</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="46">
         <f t="shared" si="2"/>
-        <v>9043403.7802629825</v>
-      </c>
-      <c r="E13" s="13" t="s">
+        <v>12160000</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="39">
         <v>3</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="41">
         <f t="shared" si="0"/>
-        <v>9.0434037802629827</v>
-      </c>
-      <c r="J13" s="13" t="s">
+        <v>12.16</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="33">
         <v>11</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="35">
         <f>7600*Q13+1100</f>
-        <v>1027100</v>
-      </c>
-      <c r="N13" s="40" t="s">
+        <v>1141100</v>
+      </c>
+      <c r="N13" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P13" t="s">
         <v>60</v>
       </c>
-      <c r="Q13" s="18">
-        <v>135</v>
+      <c r="Q13" s="17">
+        <v>150</v>
       </c>
       <c r="R13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="W13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="39">
         <v>13</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="40">
         <v>221.22</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="46">
         <f t="shared" si="2"/>
-        <v>3277300</v>
-      </c>
-      <c r="E14" s="24" t="s">
+        <v>5720000</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="39">
         <v>3</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="41">
         <f t="shared" si="0"/>
-        <v>3.2772999999999999</v>
-      </c>
-      <c r="J14" s="13" t="s">
+        <v>5.72</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="37">
         <v>12</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="35">
         <f>310000*Q14</f>
-        <v>99429.717309583939</v>
-      </c>
-      <c r="N14" s="40" t="s">
+        <v>310000</v>
+      </c>
+      <c r="N14" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O14"/>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="23">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X14" s="4">
         <v>0.32074102357930301</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="Y14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="39">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="40">
         <v>221.23</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="46">
         <f t="shared" si="2"/>
-        <v>3902599.9998715739</v>
-      </c>
-      <c r="E15" s="13" t="s">
+        <v>6649206.5458000004</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="39">
         <v>3</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="41">
         <f t="shared" si="0"/>
-        <v>3.9025999998715739</v>
-      </c>
-      <c r="K15" s="37">
+        <v>6.6492065458000003</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="K15" s="33">
         <v>13</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="35">
         <f>14080*Q14</f>
-        <v>4516.0336119965859</v>
-      </c>
-      <c r="N15" s="40" t="s">
+        <v>14080</v>
+      </c>
+      <c r="N15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P15" t="s">
         <v>70</v>
       </c>
-      <c r="Q15" s="18">
-        <v>1.02818899680995</v>
+      <c r="Q15" s="17">
+        <v>0.5</v>
       </c>
       <c r="R15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="W15" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15">
+        <v>1.02818899680995</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="40">
         <v>221.24</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>62000</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="39">
         <v>3</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="13" t="s">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="33">
         <v>14</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="35">
         <f>310000*Q15</f>
-        <v>318738.58901108452</v>
-      </c>
-      <c r="N16" s="40" t="s">
+        <v>155000</v>
+      </c>
+      <c r="N16" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O16"/>
       <c r="P16" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="18">
-        <v>529.89871606629742</v>
+      <c r="Q16" s="17">
+        <v>600</v>
       </c>
       <c r="R16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="W16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" s="1">
+        <v>529.89871606629742</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="39">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="40">
         <v>222.12</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="46">
         <f>M21</f>
-        <v>11340000</v>
-      </c>
-      <c r="E17" s="13" t="s">
+        <v>7500000</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="39">
         <v>3</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="41">
         <f t="shared" si="0"/>
-        <v>11.34</v>
-      </c>
-      <c r="J17" s="13" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="33">
         <v>15</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="35">
         <f>950*Q16+610000*(Q17+Q18)</f>
-        <v>9043403.7802629825</v>
-      </c>
-      <c r="N17" s="40" t="s">
+        <v>12160000</v>
+      </c>
+      <c r="N17" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P17" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="18">
-        <v>12</v>
+      <c r="Q17" s="17">
+        <v>15</v>
       </c>
       <c r="R17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="W17" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="39">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="40">
         <v>222.13</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="46">
         <f>M22+M23+M24</f>
-        <v>1254783.68</v>
-      </c>
-      <c r="E18" s="13" t="s">
+        <v>1304000</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="39">
         <v>3</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="41">
         <f t="shared" si="0"/>
-        <v>1.2547836799999998</v>
-      </c>
-      <c r="J18" s="24" t="s">
+        <v>1.304</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="33">
         <v>16</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="35">
         <f>310000*Q19+120000*Q20+1000000*Q21</f>
-        <v>3277300</v>
-      </c>
-      <c r="N18" s="40" t="s">
+        <v>5720000</v>
+      </c>
+      <c r="N18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P18" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="18">
-        <v>2</v>
+      <c r="Q18" s="17">
+        <v>4</v>
       </c>
       <c r="R18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="W18" t="s">
+        <v>81</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="39">
         <v>18</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="40">
         <v>227</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="46">
         <f t="shared" ref="D19:D29" si="3">M25</f>
         <v>8500000</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="39">
         <v>2</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="41">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="43"/>
+      <c r="J19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="33">
         <v>17</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="35">
         <f>949.8866494*Q22</f>
-        <v>3902599.9998715739</v>
-      </c>
-      <c r="N19" s="40" t="s">
+        <v>6649206.5458000004</v>
+      </c>
+      <c r="N19" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P19" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="18">
-        <v>2.0299999999999998</v>
+      <c r="Q19" s="17">
+        <v>4</v>
       </c>
       <c r="R19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="W19" t="s">
+        <v>85</v>
+      </c>
+      <c r="X19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="39">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="46">
         <f t="shared" si="3"/>
         <v>18734510.992774624</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="39">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="41">
         <f t="shared" si="0"/>
         <v>18.734510992774624</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="I20" s="43"/>
+      <c r="J20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="33">
         <v>18</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="35">
         <f>310000*Q23</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="40" t="s">
+        <v>62000</v>
+      </c>
+      <c r="N20" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P20" t="s">
         <v>89</v>
       </c>
-      <c r="Q20" s="18">
-        <v>7.9</v>
+      <c r="Q20" s="17">
+        <v>4</v>
       </c>
       <c r="R20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="W20" t="s">
+        <v>89</v>
+      </c>
+      <c r="X20">
+        <v>7.9</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="45">
         <f>M27</f>
         <v>1496000</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <f t="shared" si="0"/>
         <v>1.496</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="33">
         <v>19</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="35">
         <f>10000*Q24*(1-Q25)</f>
-        <v>11340000</v>
-      </c>
-      <c r="N21" s="40" t="s">
+        <v>7500000</v>
+      </c>
+      <c r="N21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P21" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="22">
-        <v>1.7</v>
+      <c r="Q21" s="21">
+        <v>4</v>
       </c>
       <c r="R21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="W21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21">
+        <v>1.7</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <v>32</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="45">
         <f t="shared" si="3"/>
         <v>1800000</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="33">
         <v>20</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="35">
         <f>50000*Q26</f>
         <v>100000</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P22" t="s">
         <v>97</v>
       </c>
-      <c r="Q22" s="18">
-        <v>4108.4902102126271</v>
+      <c r="Q22" s="17">
+        <v>7000</v>
       </c>
       <c r="R22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="W22" t="s">
+        <v>97</v>
+      </c>
+      <c r="X22">
+        <v>4108.4902102126271</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="45">
         <f>M29</f>
         <v>225287.67123287672</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <f t="shared" si="0"/>
         <v>0.22528767123287671</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="33">
         <v>21</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="35">
         <f>530000*Q26</f>
         <v>1060000</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P23" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" s="18">
-        <v>0</v>
+      <c r="Q23" s="17">
+        <v>0.2</v>
       </c>
       <c r="R23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="W23" t="s">
+        <v>102</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="45">
         <f t="shared" si="3"/>
         <v>1965000</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <f t="shared" si="0"/>
         <v>1.9650000000000001</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="33">
         <v>22</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="35">
         <f>120000*Q26*Q27</f>
-        <v>94783.680000000008</v>
-      </c>
-      <c r="N24" s="40" t="s">
+        <v>144000</v>
+      </c>
+      <c r="N24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P24" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="18">
-        <v>1134</v>
+      <c r="Q24" s="17">
+        <v>1500</v>
       </c>
       <c r="R24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="W24" t="s">
+        <v>107</v>
+      </c>
+      <c r="X24">
+        <v>1134</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="26">
         <v>511</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="45">
         <f t="shared" si="3"/>
         <v>1455000</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <f t="shared" si="0"/>
         <v>1.4550000000000001</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="33">
         <v>23</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="35">
         <f>2000*Q28+6500000</f>
         <v>8500000</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P25" t="s">
         <v>111</v>
       </c>
-      <c r="Q25" s="19">
-        <v>0</v>
+      <c r="Q25" s="18">
+        <v>0.5</v>
       </c>
       <c r="R25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="W25" t="s">
+        <v>111</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="26">
         <v>512</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="45">
         <f t="shared" si="3"/>
         <v>249120.00000000003</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>2</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
         <v>0.24912000000000004</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="33">
         <v>24</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="35">
         <f>282553*Q29+213800000*(((Q30/1144)^0.4)+((Q29/3431)^0.8))</f>
         <v>18734510.992774624</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P26" t="s">
         <v>115</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="17">
         <v>2</v>
       </c>
       <c r="R26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="W26" t="s">
+        <v>115</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <v>55</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="45">
         <f t="shared" si="3"/>
         <v>27689151.729621693</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <f t="shared" si="0"/>
         <v>27.689151729621692</v>
       </c>
       <c r="K27" s="2">
         <v>25</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>92</v>
       </c>
       <c r="M27" s="3">
@@ -3030,44 +3305,53 @@
       <c r="P27" t="s">
         <v>119</v>
       </c>
-      <c r="Q27" s="18">
-        <v>0.39493200000000001</v>
+      <c r="Q27" s="17">
+        <v>0.6</v>
       </c>
       <c r="R27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="W27" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27">
+        <v>0.39493200000000001</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <v>58</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="45">
         <f t="shared" si="3"/>
         <v>9167440.0598450769</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>9.1674400598450774</v>
       </c>
       <c r="K28" s="2">
         <v>26</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>95</v>
       </c>
       <c r="M28" s="3">
@@ -3080,44 +3364,53 @@
       <c r="P28" t="s">
         <v>122</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="17">
         <v>1000</v>
       </c>
       <c r="R28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="W28" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28">
+        <v>1000</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="45">
         <f t="shared" si="3"/>
         <v>4660000</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>2</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>4.66</v>
       </c>
       <c r="K29" s="2">
         <v>27</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>100</v>
       </c>
       <c r="M29" s="3">
@@ -3130,24 +3423,33 @@
       <c r="P29" t="s">
         <v>127</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="17">
         <v>5</v>
       </c>
       <c r="R29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="6"/>
+      <c r="W29" t="s">
+        <v>127</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="5"/>
       <c r="K30" s="2">
         <v>28</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>105</v>
       </c>
       <c r="M30" s="3">
@@ -3160,23 +3462,32 @@
       <c r="P30" t="s">
         <v>129</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="17">
         <v>1.8</v>
       </c>
       <c r="R30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="W30" t="s">
+        <v>129</v>
+      </c>
+      <c r="X30">
+        <v>1.8</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="5"/>
       <c r="K31" s="2">
         <v>29</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>110</v>
       </c>
       <c r="M31" s="3">
@@ -3189,23 +3500,32 @@
       <c r="P31" t="s">
         <v>131</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="17">
         <v>1</v>
       </c>
       <c r="R31" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="H32" s="6"/>
+      <c r="W31" t="s">
+        <v>131</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="5"/>
       <c r="K32" s="2">
         <v>30</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="15" t="s">
         <v>114</v>
       </c>
       <c r="M32" s="3">
@@ -3218,23 +3538,32 @@
       <c r="P32" t="s">
         <v>133</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="17">
         <v>1</v>
       </c>
       <c r="R32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="H33" s="6"/>
+      <c r="W32" t="s">
+        <v>133</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="5"/>
       <c r="K33" s="2">
         <v>31</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>118</v>
       </c>
       <c r="M33" s="3">
@@ -3247,24 +3576,36 @@
       <c r="P33" t="s">
         <v>134</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="17">
         <v>1</v>
       </c>
       <c r="R33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="H34" s="6"/>
+      <c r="W33" t="s">
+        <v>134</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9">
+        <f>SUM(D7:D20)</f>
+        <v>275760587.38658923</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="5"/>
       <c r="K34" s="2">
         <v>32</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>121</v>
       </c>
       <c r="M34" s="3">
@@ -3277,19 +3618,32 @@
       <c r="P34" t="s">
         <v>135</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="17">
         <v>1</v>
       </c>
       <c r="R34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H35" s="6"/>
+      <c r="W34" t="s">
+        <v>135</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D35" s="7">
+        <f>D34/1000000</f>
+        <v>275.76058738658924</v>
+      </c>
+      <c r="H35" s="5"/>
       <c r="K35" s="2">
         <v>33</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>126</v>
       </c>
       <c r="M35" s="3">
@@ -3302,490 +3656,778 @@
       <c r="P35" t="s">
         <v>136</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="Q35" s="17">
         <v>2</v>
       </c>
       <c r="R35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H36" s="6"/>
+      <c r="W35" t="s">
+        <v>136</v>
+      </c>
+      <c r="X35">
+        <v>2</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="16"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="3"/>
       <c r="P36" t="s">
         <v>137</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="Q36" s="17">
         <v>2</v>
       </c>
       <c r="R36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H37" s="6"/>
+      <c r="W36" t="s">
+        <v>137</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H37" s="5"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="16"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="3"/>
       <c r="P37" t="s">
         <v>139</v>
       </c>
-      <c r="Q37" s="18">
+      <c r="Q37" s="17">
         <v>6000</v>
       </c>
       <c r="R37" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H38" s="6"/>
+      <c r="W37" t="s">
+        <v>139</v>
+      </c>
+      <c r="X37">
+        <v>6000</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
       <c r="K38" s="2"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="6"/>
       <c r="P38" t="s">
         <v>141</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="Q38" s="17">
         <v>1</v>
       </c>
       <c r="R38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H39" s="6"/>
+      <c r="W38" t="s">
+        <v>141</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="16"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="3"/>
       <c r="P39" t="s">
         <v>142</v>
       </c>
-      <c r="Q39" s="18">
+      <c r="Q39" s="17">
         <v>1</v>
       </c>
       <c r="R39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H40" s="6"/>
+      <c r="W39" t="s">
+        <v>142</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="16"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="3"/>
       <c r="P40" t="s">
         <v>143</v>
       </c>
-      <c r="Q40" s="18">
+      <c r="Q40" s="17">
         <v>6</v>
       </c>
       <c r="R40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D41" s="12"/>
+      <c r="W40" t="s">
+        <v>143</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D41" s="11"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="6"/>
       <c r="P41" t="s">
         <v>144</v>
       </c>
-      <c r="Q41" s="18">
+      <c r="Q41" s="17">
         <v>10</v>
       </c>
       <c r="R41" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W41" t="s">
+        <v>144</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K42" s="2"/>
-      <c r="L42" s="16"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="3"/>
       <c r="P42" t="s">
         <v>146</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="17">
         <v>8</v>
       </c>
       <c r="R42" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>146</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K43" s="2"/>
-      <c r="L43" s="16"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="3"/>
       <c r="P43" t="s">
         <v>147</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="17">
         <v>30</v>
       </c>
       <c r="R43" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W43" t="s">
+        <v>147</v>
+      </c>
+      <c r="X43">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K44" s="2"/>
-      <c r="L44" s="16"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="3"/>
       <c r="P44" t="s">
         <v>148</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q44" s="17">
         <v>1</v>
       </c>
       <c r="R44" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W44" t="s">
+        <v>148</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K45" s="2"/>
-      <c r="L45" s="16"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="3"/>
       <c r="P45" t="s">
         <v>149</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q45" s="17">
         <v>1</v>
       </c>
       <c r="R45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W45" t="s">
+        <v>149</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K46" s="2"/>
-      <c r="L46" s="16"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="3"/>
       <c r="P46" t="s">
         <v>150</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="Q46" s="17">
         <v>2</v>
       </c>
       <c r="R46" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W46" t="s">
+        <v>150</v>
+      </c>
+      <c r="X46">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K47" s="2"/>
-      <c r="L47" s="16"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="3"/>
       <c r="P47" t="s">
         <v>151</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="Q47" s="17">
         <v>1.5</v>
       </c>
       <c r="R47" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="W47" t="s">
+        <v>151</v>
+      </c>
+      <c r="X47">
+        <v>1.5</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="K48" s="2"/>
-      <c r="L48" s="16"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="3"/>
       <c r="P48" t="s">
         <v>153</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="Q48" s="17">
         <v>1</v>
       </c>
       <c r="R48" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="49" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W48" t="s">
+        <v>153</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K49" s="2"/>
-      <c r="L49" s="16"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="3"/>
       <c r="P49" t="s">
         <v>154</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="Q49" s="17">
         <v>4</v>
       </c>
       <c r="R49" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W49" t="s">
+        <v>154</v>
+      </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K50" s="2"/>
-      <c r="L50" s="16"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="3"/>
       <c r="P50" t="s">
         <v>155</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="Q50" s="17">
         <v>1455</v>
       </c>
       <c r="R50" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W50" t="s">
+        <v>155</v>
+      </c>
+      <c r="X50">
+        <v>1455</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K51" s="2"/>
-      <c r="L51" s="16"/>
+      <c r="L51" s="15"/>
       <c r="M51" s="3"/>
       <c r="P51" t="s">
         <v>157</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="Q51" s="17">
         <v>5.19</v>
       </c>
       <c r="R51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W51" t="s">
+        <v>157</v>
+      </c>
+      <c r="X51">
+        <v>5.19</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K52" s="2"/>
-      <c r="L52" s="16"/>
+      <c r="L52" s="15"/>
       <c r="M52" s="3"/>
       <c r="P52" t="s">
         <v>158</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="Q52" s="17">
         <f>0.880539499036609*Q51</f>
         <v>4.5700000000000012</v>
       </c>
       <c r="R52" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W52" t="s">
+        <v>158</v>
+      </c>
+      <c r="X52">
+        <v>4.5700000000000012</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K53" s="2"/>
-      <c r="L53" s="16"/>
+      <c r="L53" s="15"/>
       <c r="M53" s="3"/>
       <c r="P53" t="s">
         <v>159</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q53" s="19">
         <v>19.75</v>
       </c>
       <c r="R53" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W53" t="s">
+        <v>159</v>
+      </c>
+      <c r="X53">
+        <v>19.75</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K54" s="2"/>
-      <c r="L54" s="16"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="3"/>
       <c r="P54" t="s">
         <v>160</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="Q54" s="17">
         <f>2.17*Q52*(Q53-0.25)</f>
         <v>193.37955000000002</v>
       </c>
       <c r="R54" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W54" t="s">
+        <v>160</v>
+      </c>
+      <c r="X54">
+        <v>193.37955000000002</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K55" s="2"/>
-      <c r="L55" s="16"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="3"/>
       <c r="P55" t="s">
         <v>161</v>
       </c>
-      <c r="Q55" s="18">
+      <c r="Q55" s="17">
         <f>Q54-Q52</f>
         <v>188.80955000000003</v>
       </c>
       <c r="R55" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="W55" t="s">
+        <v>161</v>
+      </c>
+      <c r="X55">
+        <v>188.80955000000003</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K56" s="2"/>
-      <c r="L56" s="16"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="3"/>
       <c r="P56" t="s">
         <v>162</v>
       </c>
-      <c r="Q56" s="18">
+      <c r="Q56" s="17">
         <f>(1-0.02*Q53)*LN((1-0.01*Q53)/(0.01*Q53))</f>
         <v>0.84820592875111156</v>
       </c>
       <c r="R56" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="17"/>
+      <c r="W56" t="s">
+        <v>162</v>
+      </c>
+      <c r="X56">
+        <v>0.84820592875111156</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L57" s="16"/>
       <c r="M57" s="3"/>
       <c r="P57" t="s">
         <v>164</v>
       </c>
-      <c r="Q57" s="18">
+      <c r="Q57" s="17">
         <f>1000*(Q52*Q56+Q55*5.96-Q54*4.87)</f>
         <v>187422.81059439279</v>
       </c>
       <c r="R57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="17"/>
+      <c r="W57" t="s">
+        <v>164</v>
+      </c>
+      <c r="X57">
+        <v>187422.81059439279</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L58" s="16"/>
       <c r="M58" s="3"/>
       <c r="P58" t="s">
         <v>165</v>
       </c>
-      <c r="Q58" s="18">
+      <c r="Q58" s="17">
         <f>1.5</f>
         <v>1.5</v>
       </c>
       <c r="R58" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L59" s="17"/>
+      <c r="W58" t="s">
+        <v>165</v>
+      </c>
+      <c r="X58">
+        <v>1.5</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L59" s="16"/>
       <c r="M59" s="3"/>
       <c r="P59" t="s">
         <v>166</v>
       </c>
-      <c r="Q59" s="18">
+      <c r="Q59" s="17">
         <v>10</v>
       </c>
       <c r="R59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L60" s="17"/>
+      <c r="W59" t="s">
+        <v>166</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L60" s="16"/>
       <c r="M60" s="3"/>
       <c r="P60" t="s">
         <v>167</v>
       </c>
-      <c r="Q60" s="18">
+      <c r="Q60" s="17">
         <v>5</v>
       </c>
       <c r="R60" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L61" s="17"/>
+      <c r="W60" t="s">
+        <v>167</v>
+      </c>
+      <c r="X60">
+        <v>5</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L61" s="16"/>
       <c r="M61" s="3"/>
       <c r="P61" t="s">
         <v>168</v>
       </c>
-      <c r="Q61" s="18">
+      <c r="Q61" s="17">
         <v>5</v>
       </c>
       <c r="R61" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L62" s="17"/>
+      <c r="W61" t="s">
+        <v>168</v>
+      </c>
+      <c r="X61">
+        <v>5</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L62" s="16"/>
       <c r="M62" s="3"/>
       <c r="P62" t="s">
         <v>169</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="17">
         <v>1</v>
       </c>
       <c r="R62" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="63" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="17"/>
+      <c r="W62" t="s">
+        <v>169</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L63" s="16"/>
       <c r="M63" s="3"/>
       <c r="P63" t="s">
         <v>170</v>
       </c>
-      <c r="Q63" s="18">
+      <c r="Q63" s="17">
         <v>1</v>
       </c>
       <c r="R63" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="17"/>
+      <c r="W63" t="s">
+        <v>170</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L64" s="16"/>
       <c r="M64" s="3"/>
       <c r="P64" t="s">
         <v>171</v>
       </c>
-      <c r="Q64" s="18">
+      <c r="Q64" s="17">
         <v>2</v>
       </c>
       <c r="R64" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L65" s="17"/>
+      <c r="W64" t="s">
+        <v>171</v>
+      </c>
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L65" s="16"/>
       <c r="M65" s="3"/>
       <c r="P65" t="s">
         <v>172</v>
       </c>
-      <c r="Q65" s="18">
+      <c r="Q65" s="17">
         <v>1</v>
       </c>
       <c r="R65" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L66" s="17"/>
+      <c r="W65" t="s">
+        <v>172</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L66" s="16"/>
       <c r="M66" s="3"/>
       <c r="P66" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="18">
+      <c r="Q66" s="17">
         <v>4</v>
       </c>
       <c r="R66" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L67" s="17"/>
+      <c r="W66" t="s">
+        <v>173</v>
+      </c>
+      <c r="X66">
+        <v>4</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L67" s="16"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L68" s="17"/>
+    <row r="68" spans="12:25" x14ac:dyDescent="0.2">
+      <c r="L68" s="16"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="12:25" x14ac:dyDescent="0.2">
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.2">
